--- a/BTD6AutoCommunity/Assets/指令对照.xlsx
+++ b/BTD6AutoCommunity/Assets/指令对照.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="59">
   <si>
     <t>v0版本指令对照</t>
   </si>
@@ -896,13 +896,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,8 +1150,8 @@
   <sheetPr/>
   <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:J27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1624,6 +1617,12 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
@@ -1650,6 +1649,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
@@ -1670,6 +1675,15 @@
       <c r="B33" t="s">
         <v>13</v>
       </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
@@ -1696,6 +1710,12 @@
       <c r="B34" t="s">
         <v>13</v>
       </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
       <c r="I34" t="s">
         <v>33</v>
       </c>
@@ -1715,6 +1735,12 @@
       </c>
       <c r="B35" t="s">
         <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>

--- a/BTD6AutoCommunity/Assets/指令对照.xlsx
+++ b/BTD6AutoCommunity/Assets/指令对照.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
   <si>
     <t>v0版本指令对照</t>
   </si>
@@ -1151,7 +1151,7 @@
   <dimension ref="A3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1588,11 +1588,8 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -1612,17 +1609,12 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
+      <c r="D31"/>
       <c r="F31" t="s">
         <v>20</v>
       </c>
@@ -1644,17 +1636,12 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
+      <c r="D32"/>
       <c r="G32" t="s">
         <v>33</v>
       </c>
@@ -1673,17 +1660,12 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>58</v>
-      </c>
+      <c r="D33"/>
       <c r="G33" t="s">
         <v>33</v>
       </c>
@@ -1708,12 +1690,6 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="I34" t="s">
@@ -1734,12 +1710,6 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
         <v>58</v>
       </c>
       <c r="G35" t="s">

--- a/BTD6AutoCommunity/Assets/指令对照.xlsx
+++ b/BTD6AutoCommunity/Assets/指令对照.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="60">
   <si>
     <t>v0版本指令对照</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>参数11</t>
+  </si>
+  <si>
+    <t>是否有放置检测</t>
   </si>
   <si>
     <t>猴子ID</t>
@@ -1151,7 +1154,7 @@
   <dimension ref="A3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1588,8 +1591,11 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
       <c r="H30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
         <v>33</v>
@@ -1609,12 +1615,11 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31"/>
       <c r="F31" t="s">
         <v>20</v>
       </c>
@@ -1636,12 +1641,11 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32"/>
       <c r="G32" t="s">
         <v>33</v>
       </c>
@@ -1660,12 +1664,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33"/>
       <c r="G33" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I34" t="s">
         <v>33</v>
@@ -1710,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
